--- a/tests/test_files/aaa.xlsx
+++ b/tests/test_files/aaa.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="-195" windowWidth="14805" windowHeight="12345"/>
+    <workbookView xWindow="8175" yWindow="-90" windowWidth="14805" windowHeight="12345" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$K$2</definedName>
@@ -151,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>trest</t>
     <phoneticPr fontId="1"/>
@@ -393,6 +394,45 @@
     <t>　</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>追試テスト</t>
+    <rPh sb="0" eb="2">
+      <t>ツイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>縦文字</t>
+    <rPh sb="0" eb="3">
+      <t>タテモジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>記号</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cm</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>キゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TEST</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -410,7 +450,7 @@
     <numFmt numFmtId="184" formatCode="0_ "/>
     <numFmt numFmtId="185" formatCode="#,##0.00_ "/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -587,8 +627,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <u val="double"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="HGP創英角ｺﾞｼｯｸUB"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -618,8 +691,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <gradientFill degree="315">
+        <stop position="0">
+          <color theme="4" tint="0.40000610370189521"/>
+        </stop>
+        <stop position="1">
+          <color theme="8" tint="0.40000610370189521"/>
+        </stop>
+      </gradientFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -653,6 +736,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -661,7 +800,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -701,9 +840,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="ハイパーリンク" xfId="2" builtinId="8"/>
@@ -829,11 +984,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="205296128"/>
-        <c:axId val="198819136"/>
+        <c:axId val="221850112"/>
+        <c:axId val="221970432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="205296128"/>
+        <c:axId val="221850112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -842,7 +997,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198819136"/>
+        <c:crossAx val="221970432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -850,7 +1005,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198819136"/>
+        <c:axId val="221970432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -861,14 +1016,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205296128"/>
+        <c:crossAx val="221850112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1022,11 +1176,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="207843328"/>
-        <c:axId val="208265216"/>
+        <c:axId val="223274496"/>
+        <c:axId val="223470144"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="207843328"/>
+        <c:axId val="223274496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1036,7 +1190,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208265216"/>
+        <c:crossAx val="223470144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1044,7 +1198,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="208265216"/>
+        <c:axId val="223470144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1055,14 +1209,13 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="207843328"/>
+        <c:crossAx val="223274496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1202,11 +1355,11 @@
         </c:dLbls>
         <c:bubbleScale val="100"/>
         <c:showNegBubbles val="0"/>
-        <c:axId val="208266944"/>
-        <c:axId val="208267520"/>
+        <c:axId val="223471872"/>
+        <c:axId val="223472448"/>
       </c:bubbleChart>
       <c:valAx>
-        <c:axId val="208266944"/>
+        <c:axId val="223471872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1216,12 +1369,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208267520"/>
+        <c:crossAx val="223472448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="208267520"/>
+        <c:axId val="223472448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1232,14 +1385,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208266944"/>
+        <c:crossAx val="223471872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1387,11 +1539,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="205381632"/>
-        <c:axId val="205458240"/>
+        <c:axId val="221826560"/>
+        <c:axId val="221974464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="205381632"/>
+        <c:axId val="221826560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1400,7 +1552,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205458240"/>
+        <c:crossAx val="221974464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1408,7 +1560,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="205458240"/>
+        <c:axId val="221974464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1416,21 +1568,19 @@
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205381632"/>
+        <c:crossAx val="221826560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1546,7 +1696,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -1650,7 +1799,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1783,11 +1931,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="205462272"/>
-        <c:axId val="205462848"/>
+        <c:axId val="221977920"/>
+        <c:axId val="223117312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="205462272"/>
+        <c:axId val="221977920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1797,12 +1945,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205462848"/>
+        <c:crossAx val="223117312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="205462848"/>
+        <c:axId val="223117312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1813,7 +1961,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205462272"/>
+        <c:crossAx val="221977920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1886,7 +2034,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2002,11 +2149,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="205383680"/>
-        <c:axId val="205948032"/>
+        <c:axId val="222568960"/>
+        <c:axId val="223119040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="205383680"/>
+        <c:axId val="222568960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2015,7 +2162,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205948032"/>
+        <c:crossAx val="223119040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2023,7 +2170,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="205948032"/>
+        <c:axId val="223119040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2034,14 +2181,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205383680"/>
+        <c:crossAx val="222568960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2171,12 +2317,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="205385216"/>
-        <c:axId val="205949760"/>
+        <c:axId val="222569984"/>
+        <c:axId val="223120768"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="205385216"/>
+        <c:axId val="222569984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2185,7 +2331,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205949760"/>
+        <c:crossAx val="223120768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2193,7 +2339,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="205949760"/>
+        <c:axId val="223120768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2204,14 +2350,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205385216"/>
+        <c:crossAx val="222569984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2362,11 +2507,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="208287232"/>
-        <c:axId val="205951488"/>
+        <c:axId val="222572032"/>
+        <c:axId val="223122496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="208287232"/>
+        <c:axId val="222572032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2375,7 +2520,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205951488"/>
+        <c:crossAx val="223122496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2383,7 +2528,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="205951488"/>
+        <c:axId val="223122496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2394,14 +2539,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208287232"/>
+        <c:crossAx val="222572032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2564,12 +2708,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="208287744"/>
-        <c:axId val="205953216"/>
-        <c:axId val="204800000"/>
+        <c:axId val="223272960"/>
+        <c:axId val="223124224"/>
+        <c:axId val="221845376"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="208287744"/>
+        <c:axId val="223272960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2578,7 +2722,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205953216"/>
+        <c:crossAx val="223124224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2586,7 +2730,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="205953216"/>
+        <c:axId val="223124224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2597,12 +2741,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208287744"/>
+        <c:crossAx val="223272960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="204800000"/>
+        <c:axId val="221845376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2611,13 +2755,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205953216"/>
+        <c:crossAx val="223124224"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3676,7 +3819,7 @@
   </sheetPr>
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3823,11 +3966,11 @@
       </c>
     </row>
     <row r="17" spans="2:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B20" s="32">
@@ -4223,4 +4366,70 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="7.375" customWidth="1"/>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="8" max="8" width="9" style="40"/>
+    <col min="11" max="11" width="9" style="44"/>
+    <col min="12" max="12" width="9" style="47"/>
+    <col min="13" max="13" width="9" style="44"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="B2" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="43" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="F3" s="43"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="43"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="F5" s="43"/>
+    </row>
+    <row r="6" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="F6" s="43"/>
+    </row>
+    <row r="7" spans="1:13" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="37"/>
+      <c r="F7" s="43"/>
+    </row>
+    <row r="11" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G11" s="39"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="41"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="46"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F2:F7"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/tests/test_files/aaa.xlsx
+++ b/tests/test_files/aaa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="8175" yWindow="-90" windowWidth="14805" windowHeight="12345" activeTab="2"/>
+    <workbookView xWindow="8175" yWindow="-90" windowWidth="14805" windowHeight="12345" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$K$2</definedName>
@@ -152,7 +153,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>trest</t>
     <phoneticPr fontId="1"/>
@@ -427,6 +428,10 @@
     <rPh sb="0" eb="2">
       <t>キゴウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TEST</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -984,11 +989,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="223242752"/>
-        <c:axId val="223346688"/>
+        <c:axId val="202541568"/>
+        <c:axId val="203030528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="223242752"/>
+        <c:axId val="202541568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -997,7 +1002,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="223346688"/>
+        <c:crossAx val="203030528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1005,7 +1010,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="223346688"/>
+        <c:axId val="203030528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1016,7 +1021,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="223242752"/>
+        <c:crossAx val="202541568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1176,11 +1181,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="224740352"/>
-        <c:axId val="224911936"/>
+        <c:axId val="202495488"/>
+        <c:axId val="173400640"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="224740352"/>
+        <c:axId val="202495488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1190,7 +1195,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="224911936"/>
+        <c:crossAx val="173400640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1198,7 +1203,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="224911936"/>
+        <c:axId val="173400640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1209,13 +1214,14 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="224740352"/>
+        <c:crossAx val="202495488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1355,11 +1361,11 @@
         </c:dLbls>
         <c:bubbleScale val="100"/>
         <c:showNegBubbles val="0"/>
-        <c:axId val="224913664"/>
-        <c:axId val="224914240"/>
+        <c:axId val="173402368"/>
+        <c:axId val="173402944"/>
       </c:bubbleChart>
       <c:valAx>
-        <c:axId val="224913664"/>
+        <c:axId val="173402368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1369,12 +1375,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="224914240"/>
+        <c:crossAx val="173402944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="224914240"/>
+        <c:axId val="173402944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1385,13 +1391,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="224913664"/>
+        <c:crossAx val="173402368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1539,11 +1546,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="223887360"/>
-        <c:axId val="223350720"/>
+        <c:axId val="202876928"/>
+        <c:axId val="203034560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="223887360"/>
+        <c:axId val="202876928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1552,7 +1559,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="223350720"/>
+        <c:crossAx val="203034560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1560,7 +1567,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="223350720"/>
+        <c:axId val="203034560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1568,19 +1575,21 @@
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="223887360"/>
+        <c:crossAx val="202876928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1696,6 +1705,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -1799,6 +1809,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1931,11 +1942,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="223354176"/>
-        <c:axId val="223969280"/>
+        <c:axId val="203038016"/>
+        <c:axId val="204439552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="223354176"/>
+        <c:axId val="203038016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1945,12 +1956,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="223969280"/>
+        <c:crossAx val="204439552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="223969280"/>
+        <c:axId val="204439552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1961,7 +1972,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="223354176"/>
+        <c:crossAx val="203038016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2034,6 +2045,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2149,11 +2161,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="223888384"/>
-        <c:axId val="223971008"/>
+        <c:axId val="203597312"/>
+        <c:axId val="204441280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="223888384"/>
+        <c:axId val="203597312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2162,7 +2174,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="223971008"/>
+        <c:crossAx val="204441280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2170,7 +2182,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="223971008"/>
+        <c:axId val="204441280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2181,13 +2193,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="223888384"/>
+        <c:crossAx val="203597312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2317,12 +2330,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="224527360"/>
-        <c:axId val="223972736"/>
+        <c:axId val="203597824"/>
+        <c:axId val="204443008"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="224527360"/>
+        <c:axId val="203597824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2331,7 +2344,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="223972736"/>
+        <c:crossAx val="204443008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2339,7 +2352,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="223972736"/>
+        <c:axId val="204443008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2350,7 +2363,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="224527360"/>
+        <c:crossAx val="203597824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2507,11 +2520,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="223890944"/>
-        <c:axId val="223974464"/>
+        <c:axId val="202493952"/>
+        <c:axId val="204444736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="223890944"/>
+        <c:axId val="202493952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2520,7 +2533,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="223974464"/>
+        <c:crossAx val="204444736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2528,7 +2541,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="223974464"/>
+        <c:axId val="204444736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2539,13 +2552,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="223890944"/>
+        <c:crossAx val="202493952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2708,12 +2722,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="224739328"/>
-        <c:axId val="223976192"/>
-        <c:axId val="223238016"/>
+        <c:axId val="202494464"/>
+        <c:axId val="204446464"/>
+        <c:axId val="202764928"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="224739328"/>
+        <c:axId val="202494464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2722,7 +2736,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="223976192"/>
+        <c:crossAx val="204446464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2730,7 +2744,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="223976192"/>
+        <c:axId val="204446464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2741,12 +2755,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="224739328"/>
+        <c:crossAx val="202494464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="223238016"/>
+        <c:axId val="202764928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2755,12 +2769,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="223976192"/>
+        <c:crossAx val="204446464"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4251,10 +4266,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="9" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection activeCell="J1" activeCellId="7" sqref="A3:XFD3 B12:C16 F14 C14 C14 B12:C16 G21:H24 J1:J1048576"/>
+      <selection pane="topRight" activeCell="J1" activeCellId="7" sqref="A3:XFD3 B12:C16 F14 C14 C14 B12:C16 G21:H24 J1:J1048576"/>
+      <selection pane="bottomLeft" activeCell="J1" activeCellId="7" sqref="A3:XFD3 B12:C16 F14 C14 C14 B12:C16 G21:H24 J1:J1048576"/>
       <selection pane="bottomRight" activeCell="J1" activeCellId="7" sqref="A3:XFD3 B12:C16 F14 C14 C14 B12:C16 G21:H24 J1:J1048576"/>
     </sheetView>
   </sheetViews>
@@ -4279,7 +4295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J1" activeCellId="7" sqref="A3:XFD3 B12:C16 F14 C14 C14 B12:C16 G21:H24 J1:J1048576"/>
     </sheetView>
   </sheetViews>
@@ -4437,4 +4453,47 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="1.1023622047244095" right="1.1023622047244095" top="0.35433070866141736" bottom="0.35433070866141736" header="0.11811023622047245" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="120" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;P ページ</oddHeader>
+    <oddFooter>&amp;L&amp;B 社外秘&amp;B&amp;C&amp;D&amp;R&amp;P ページ</oddFooter>
+  </headerFooter>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="13" max="16383" man="1"/>
+  </rowBreaks>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="9" max="1048575" man="1"/>
+  </colBreaks>
+</worksheet>
 </file>
--- a/tests/test_files/aaa.xlsx
+++ b/tests/test_files/aaa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="8175" yWindow="-90" windowWidth="14805" windowHeight="12345" activeTab="5"/>
+    <workbookView xWindow="8175" yWindow="-90" windowWidth="14805" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -153,7 +153,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>trest</t>
     <phoneticPr fontId="1"/>
@@ -436,6 +436,10 @@
   </si>
   <si>
     <t>TEST</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>123456789012345678</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -930,6 +934,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>ライン①</c:v>
+          </c:tx>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$G$7:$G$10</c:f>
@@ -956,6 +963,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>ライン②</c:v>
+          </c:tx>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$H$7:$H$10</c:f>
@@ -989,11 +999,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="202541568"/>
-        <c:axId val="203030528"/>
+        <c:axId val="207163904"/>
+        <c:axId val="207356480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="202541568"/>
+        <c:axId val="207163904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1002,7 +1012,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203030528"/>
+        <c:crossAx val="207356480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1010,7 +1020,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="203030528"/>
+        <c:axId val="207356480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1021,13 +1031,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202541568"/>
+        <c:crossAx val="207163904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1181,11 +1192,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="202495488"/>
-        <c:axId val="173400640"/>
+        <c:axId val="208927744"/>
+        <c:axId val="208610432"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="202495488"/>
+        <c:axId val="208927744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1195,7 +1206,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173400640"/>
+        <c:crossAx val="208610432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1203,7 +1214,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="173400640"/>
+        <c:axId val="208610432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1214,14 +1225,13 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202495488"/>
+        <c:crossAx val="208927744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1361,11 +1371,11 @@
         </c:dLbls>
         <c:bubbleScale val="100"/>
         <c:showNegBubbles val="0"/>
-        <c:axId val="173402368"/>
-        <c:axId val="173402944"/>
+        <c:axId val="208612160"/>
+        <c:axId val="208612736"/>
       </c:bubbleChart>
       <c:valAx>
-        <c:axId val="173402368"/>
+        <c:axId val="208612160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1375,12 +1385,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173402944"/>
+        <c:crossAx val="208612736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="173402944"/>
+        <c:axId val="208612736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1391,14 +1401,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173402368"/>
+        <c:crossAx val="208612160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1546,11 +1555,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="202876928"/>
-        <c:axId val="203034560"/>
+        <c:axId val="208311808"/>
+        <c:axId val="207359936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="202876928"/>
+        <c:axId val="208311808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1559,7 +1568,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203034560"/>
+        <c:crossAx val="207359936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1567,7 +1576,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="203034560"/>
+        <c:axId val="207359936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1575,21 +1584,19 @@
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202876928"/>
+        <c:crossAx val="208311808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1705,7 +1712,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -1809,7 +1815,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1942,11 +1947,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="203038016"/>
-        <c:axId val="204439552"/>
+        <c:axId val="208363520"/>
+        <c:axId val="208364096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="203038016"/>
+        <c:axId val="208363520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1956,12 +1961,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204439552"/>
+        <c:crossAx val="208364096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="204439552"/>
+        <c:axId val="208364096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1972,7 +1977,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203038016"/>
+        <c:crossAx val="208363520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2045,7 +2050,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2161,11 +2165,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="203597312"/>
-        <c:axId val="204441280"/>
+        <c:axId val="208312832"/>
+        <c:axId val="208365824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="203597312"/>
+        <c:axId val="208312832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2174,7 +2178,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204441280"/>
+        <c:crossAx val="208365824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2182,7 +2186,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="204441280"/>
+        <c:axId val="208365824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2193,14 +2197,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203597312"/>
+        <c:crossAx val="208312832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2330,12 +2333,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="203597824"/>
-        <c:axId val="204443008"/>
+        <c:axId val="208313344"/>
+        <c:axId val="208367552"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="203597824"/>
+        <c:axId val="208313344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2344,7 +2347,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204443008"/>
+        <c:crossAx val="208367552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2352,7 +2355,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="204443008"/>
+        <c:axId val="208367552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2363,7 +2366,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203597824"/>
+        <c:crossAx val="208313344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2520,11 +2523,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="202493952"/>
-        <c:axId val="204444736"/>
+        <c:axId val="208926208"/>
+        <c:axId val="208369280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="202493952"/>
+        <c:axId val="208926208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2533,7 +2536,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204444736"/>
+        <c:crossAx val="208369280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2541,7 +2544,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="204444736"/>
+        <c:axId val="208369280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2552,14 +2555,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202493952"/>
+        <c:crossAx val="208926208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2722,12 +2724,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="202494464"/>
-        <c:axId val="204446464"/>
-        <c:axId val="202764928"/>
+        <c:axId val="208926720"/>
+        <c:axId val="208371008"/>
+        <c:axId val="207035520"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="202494464"/>
+        <c:axId val="208926720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2736,7 +2738,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204446464"/>
+        <c:crossAx val="208371008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2744,7 +2746,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="204446464"/>
+        <c:axId val="208371008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2755,12 +2757,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202494464"/>
+        <c:crossAx val="208926720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="202764928"/>
+        <c:axId val="207035520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2769,13 +2771,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204446464"/>
+        <c:crossAx val="208371008"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3832,13 +3833,15 @@
   <sheetPr codeName="Sheet1">
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.75" customWidth="1"/>
     <col min="4" max="4" width="23.5" customWidth="1"/>
     <col min="5" max="6" width="10.625" customWidth="1"/>
   </cols>
@@ -4090,6 +4093,11 @@
     <row r="35" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B35" s="30">
         <v>1.2344999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B37" s="25" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -4459,7 +4467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/tests/test_files/aaa.xlsx
+++ b/tests/test_files/aaa.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05674B2D-B17E-4027-AC5B-679235C84D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8175" yWindow="-90" windowWidth="14805" windowHeight="12345"/>
+    <workbookView xWindow="6525" yWindow="765" windowWidth="21600" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,17 +19,29 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$K$2</definedName>
     <definedName name="名前">Sheet2!$O$3</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="F7" authorId="0">
+    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -54,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C20" authorId="0">
+    <comment ref="C20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -117,12 +130,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="K27" authorId="0">
+    <comment ref="K27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -153,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>trest</t>
     <phoneticPr fontId="1"/>
@@ -442,11 +455,22 @@
     <t>123456789012345678</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>test2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>列1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="10">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0.0000_);\(0.0000\)"/>
@@ -907,12 +931,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -959,6 +986,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-11F7-42B7-A007-301720C0FE9B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -988,6 +1020,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-11F7-42B7-A007-301720C0FE9B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1038,7 +1075,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1054,7 +1090,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -1109,6 +1145,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3DCB-4D61-9C69-12F64FAE8360}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1146,6 +1187,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3DCB-4D61-9C69-12F64FAE8360}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1183,6 +1229,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3DCB-4D61-9C69-12F64FAE8360}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1247,7 +1298,7 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -1360,6 +1411,11 @@
             </c:numRef>
           </c:bubbleSize>
           <c:bubble3D val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A41D-45B6-9001-26CDF563EF9A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1423,7 +1479,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -1506,6 +1562,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3AB0-40C1-9B09-AA5D01104421}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1544,6 +1605,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3AB0-40C1-9B09-AA5D01104421}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1553,7 +1619,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="208311808"/>
         <c:axId val="207359936"/>
@@ -1612,7 +1677,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -1663,6 +1728,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BDD7-4673-AF62-A30065BBF42F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1697,6 +1767,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BDD7-4673-AF62-A30065BBF42F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1737,7 +1812,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -1799,6 +1874,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A7E4-4FCB-8A32-43ADAC7FD2A3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1850,7 +1930,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -1938,6 +2018,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E82C-476F-ACCD-F3DF66EAF120}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2065,7 +2150,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -2119,6 +2204,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-50B5-4B6E-8C20-5F3051444772}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2154,6 +2244,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-50B5-4B6E-8C20-5F3051444772}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2219,7 +2314,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -2287,6 +2382,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2FFA-4B04-8D7B-8721825115AE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2322,6 +2422,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2FFA-4B04-8D7B-8721825115AE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2388,7 +2493,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -2442,6 +2547,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F087-4894-AB85-2B1AD7AA0586}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2477,6 +2587,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F087-4894-AB85-2B1AD7AA0586}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2512,6 +2627,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F087-4894-AB85-2B1AD7AA0586}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2577,7 +2697,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -2595,7 +2715,6 @@
       <c:rotX val="15"/>
       <c:rotY val="20"/>
       <c:rAngAx val="0"/>
-      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -2645,6 +2764,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6D96-41E6-B0C2-1D7AB5581A93}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2680,6 +2804,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6D96-41E6-B0C2-1D7AB5581A93}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2715,6 +2844,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6D96-41E6-B0C2-1D7AB5581A93}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2808,7 +2942,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2838,7 +2978,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="直方体 2"/>
+        <xdr:cNvPr id="3" name="直方体 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2915,7 +3061,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2959,7 +3111,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="円/楕円 4"/>
+        <xdr:cNvPr id="5" name="円/楕円 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3019,7 +3177,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="カギ線コネクタ 6"/>
+        <xdr:cNvPr id="7" name="カギ線コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="4"/>
           <a:endCxn id="5" idx="0"/>
@@ -3072,7 +3236,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="直線矢印コネクタ 8"/>
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="5"/>
           <a:endCxn id="5" idx="0"/>
@@ -3122,7 +3292,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="カギ線コネクタ 7"/>
+        <xdr:cNvPr id="8" name="カギ線コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3164,7 +3340,13 @@
     <xdr:ext cx="1535484" cy="937629"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3250,7 +3432,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3280,7 +3468,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="グラフ 2"/>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3310,7 +3504,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="グラフ 3"/>
+        <xdr:cNvPr id="4" name="グラフ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3340,7 +3540,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="グラフ 5"/>
+        <xdr:cNvPr id="6" name="グラフ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3370,7 +3576,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="グラフ 6"/>
+        <xdr:cNvPr id="7" name="グラフ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3400,7 +3612,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="グラフ 7"/>
+        <xdr:cNvPr id="8" name="グラフ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3435,7 +3653,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3465,7 +3689,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="グラフ 2"/>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3495,7 +3725,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="グラフ 3"/>
+        <xdr:cNvPr id="4" name="グラフ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3525,7 +3761,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="グラフ 4"/>
+        <xdr:cNvPr id="5" name="グラフ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3541,6 +3783,16 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{569355F1-BEA7-4DC7-A456-7E8F9DA4CE3A}" name="テーブル1" displayName="テーブル1" ref="D39:D41" totalsRowShown="0">
+  <autoFilter ref="D39:D41" xr:uid="{569355F1-BEA7-4DC7-A456-7E8F9DA4CE3A}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{8141DF9E-5CA2-48FD-9F5B-6E27C754C90F}" name="列1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3829,14 +4081,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4080,28 +4332,43 @@
         <v>1.2344999999999999</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B33" s="31">
         <v>12345675544</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B34" s="29">
         <v>1.2344999999999999</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B35" s="30">
         <v>1.2344999999999999</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B37" s="25" t="s">
         <v>42</v>
       </c>
     </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D41" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:K2"/>
+  <autoFilter ref="A2:K2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="B17:D17"/>
   </mergeCells>
@@ -4118,19 +4385,22 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1"/>
-    <hyperlink ref="D8" location="Sheet2!A1" display="リッチテキスト"/>
-    <hyperlink ref="C12" location="Sheet1!A1" display="Sheet1!A1"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D8" location="Sheet2!A1" display="リッチテキスト" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C12" location="Sheet1!A1" display="Sheet1!A1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
   <drawing r:id="rId3"/>
   <legacyDrawing r:id="rId4"/>
+  <tableParts count="1">
+    <tablePart r:id="rId5"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A4:R27"/>
   <sheetViews>
@@ -4270,7 +4540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -4300,7 +4570,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B4:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4398,7 +4668,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4464,7 +4734,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
@@ -4492,7 +4762,7 @@
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="1.1023622047244095" right="1.1023622047244095" top="0.35433070866141736" bottom="0.35433070866141736" header="0.11811023622047245" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="120" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="120" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;P ページ</oddHeader>
     <oddFooter>&amp;L&amp;B 社外秘&amp;B&amp;C&amp;D&amp;R&amp;P ページ</oddFooter>

--- a/tests/test_files/aaa.xlsx
+++ b/tests/test_files/aaa.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05674B2D-B17E-4027-AC5B-679235C84D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B260C347-A3B0-4A3C-B9F0-8DCEEB950DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6525" yWindow="765" windowWidth="21600" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <definedName name="名前">Sheet2!$O$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="0" r:id="rId7"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -166,7 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
   <si>
     <t>trest</t>
     <phoneticPr fontId="1"/>
@@ -465,6 +468,18 @@
   </si>
   <si>
     <t>列1</t>
+  </si>
+  <si>
+    <t>行ラベル</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>総計</t>
   </si>
 </sst>
 </file>
@@ -833,7 +848,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -886,6 +901,10 @@
     <xf numFmtId="0" fontId="26" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3785,6 +3804,120 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="作成者" refreshedDate="44636.943484027775" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="2" xr:uid="{77E71A49-E2EF-4ED9-B7AD-D3C42AD32709}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="テーブル1[列1]"/>
+  </cacheSource>
+  <cacheFields count="1">
+    <cacheField name="列1" numFmtId="0">
+      <sharedItems count="2">
+        <s v="test1"/>
+        <s v="test2"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="2">
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{69889868-B65B-4515-9BF1-724F1723CEA0}" name="ピボットテーブル2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="F44:F47" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{12003915-E9D7-4606-B3DA-3B51212BD4C6}" name="ピボットテーブル1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="D44:D47" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{569355F1-BEA7-4DC7-A456-7E8F9DA4CE3A}" name="テーブル1" displayName="テーブル1" ref="D39:D41" totalsRowShown="0">
   <autoFilter ref="D39:D41" xr:uid="{569355F1-BEA7-4DC7-A456-7E8F9DA4CE3A}"/>
@@ -4085,16 +4218,16 @@
   <sheetPr codeName="Sheet1">
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="19.75" customWidth="1"/>
-    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4236,11 +4369,11 @@
       </c>
     </row>
     <row r="17" spans="2:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B20" s="32">
@@ -4332,39 +4465,71 @@
         <v>1.2344999999999999</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B33" s="31">
         <v>12345675544</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B34" s="29">
         <v>1.2344999999999999</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B35" s="30">
         <v>1.2344999999999999</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B37" s="25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D39" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D40" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D41" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D44" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="F44" s="46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D45" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="F45" s="47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D46" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="F46" s="47" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D47" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="F47" s="47" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -4385,16 +4550,16 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="D8" location="Sheet2!A1" display="リッチテキスト" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="C12" location="Sheet1!A1" display="Sheet1!A1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
-  <drawing r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
+  <drawing r:id="rId5"/>
+  <legacyDrawing r:id="rId6"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4692,28 +4857,28 @@
       <c r="B2" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="49" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="F3" s="47"/>
+      <c r="F3" s="49"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="47"/>
+      <c r="F4" s="49"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="F5" s="47"/>
+      <c r="F5" s="49"/>
     </row>
     <row r="6" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="F6" s="47"/>
+      <c r="F6" s="49"/>
     </row>
     <row r="7" spans="1:13" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C7" s="37"/>
-      <c r="F7" s="47"/>
+      <c r="F7" s="49"/>
     </row>
     <row r="11" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="G11" s="39"/>

--- a/tests/test_files/aaa.xlsx
+++ b/tests/test_files/aaa.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B260C347-A3B0-4A3C-B9F0-8DCEEB950DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126BECBB-5EE9-4C2F-8124-074589A0EB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4220,7 +4220,7 @@
   </sheetPr>
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
@@ -4567,18 +4567,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A4:R27"/>
+  <dimension ref="A4:W27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="16" max="16" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4589,7 +4587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -4602,8 +4600,20 @@
       <c r="P5" s="9">
         <v>44027</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="U5">
+        <f>A4+A5</f>
+        <v>3</v>
+      </c>
+      <c r="V5">
+        <f>B4+B5+100</f>
+        <v>103</v>
+      </c>
+      <c r="W5">
+        <f>U5+V5</f>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -4620,8 +4630,20 @@
         <f>SUM(M8:M11)</f>
         <v>164</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="U6">
+        <f t="shared" ref="U6:U14" si="0">A5+A6</f>
+        <v>5</v>
+      </c>
+      <c r="V6">
+        <f t="shared" ref="V6:V14" si="1">B5+B6+100</f>
+        <v>105</v>
+      </c>
+      <c r="W6">
+        <f t="shared" ref="W6:W14" si="2">U6+V6</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
@@ -4631,8 +4653,20 @@
       <c r="C7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="1"/>
+        <v>107</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="2"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5</v>
       </c>
@@ -4648,8 +4682,20 @@
       <c r="M8">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="2"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -4665,8 +4711,20 @@
       <c r="M9">
         <v>43</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="2"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>7</v>
       </c>
@@ -4682,13 +4740,79 @@
       <c r="M10">
         <v>55</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="U10">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="2"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
       <c r="L11" t="s">
         <v>11</v>
       </c>
       <c r="M11">
         <v>22</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="1"/>
+        <v>107</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="2"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="U12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="U13">
+        <f>A11</f>
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="U14" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="W14" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="27" spans="11:11" x14ac:dyDescent="0.15"/>

--- a/tests/test_files/aaa.xlsx
+++ b/tests/test_files/aaa.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126BECBB-5EE9-4C2F-8124-074589A0EB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7CADC4-2B23-4C63-B5BA-622AA48A994B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="1935" windowWidth="15165" windowHeight="13665" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$K$2</definedName>
@@ -21,7 +22,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -169,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="55">
   <si>
     <t>trest</t>
     <phoneticPr fontId="1"/>
@@ -480,6 +481,26 @@
   </si>
   <si>
     <t>総計</t>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -4569,7 +4590,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A4:W27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4631,7 +4654,7 @@
         <v>164</v>
       </c>
       <c r="U6">
-        <f t="shared" ref="U6:U14" si="0">A5+A6</f>
+        <f t="shared" ref="U6:U12" si="0">A5+A6</f>
         <v>5</v>
       </c>
       <c r="V6">
@@ -4813,6 +4836,12 @@
       <c r="W14" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="U15" t="str">
+        <f>"test" &amp; "テスト"</f>
+        <v>testテスト</v>
       </c>
     </row>
     <row r="27" spans="11:11" x14ac:dyDescent="0.15"/>
@@ -5063,4 +5092,137 @@
     <brk id="9" max="1048575" man="1"/>
   </colBreaks>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E6F4B40-44BE-4DD6-A92C-0558C7FFA779}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tests/test_files/aaa.xlsx
+++ b/tests/test_files/aaa.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7CADC4-2B23-4C63-B5BA-622AA48A994B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1747BE7A-11B5-452A-8D3C-261EB148C2C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="1935" windowWidth="15165" windowHeight="13665" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1035" yWindow="525" windowWidth="16755" windowHeight="14205" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -869,12 +869,11 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -885,7 +884,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -918,7 +917,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="26" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3858,8 +3856,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{69889868-B65B-4515-9BF1-724F1723CEA0}" name="ピボットテーブル2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="F44:F47" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{12003915-E9D7-4606-B3DA-3B51212BD4C6}" name="ピボットテーブル1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="D44:D47" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" showAll="0">
       <items count="3">
@@ -3899,8 +3897,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{12003915-E9D7-4606-B3DA-3B51212BD4C6}" name="ピボットテーブル1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="D44:D47" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{69889868-B65B-4515-9BF1-724F1723CEA0}" name="ピボットテーブル2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="F44:F47" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" showAll="0">
       <items count="3">
@@ -4275,12 +4273,12 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E4" t="s">
@@ -4302,16 +4300,16 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
@@ -4322,10 +4320,10 @@
       <c r="A8" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G8">
@@ -4344,7 +4342,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="3" t="b">
@@ -4358,7 +4356,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
@@ -4366,7 +4364,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -4382,7 +4380,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B15" s="10"/>
+      <c r="B15" s="9"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="H16" t="s">
@@ -4390,51 +4388,51 @@
       </c>
     </row>
     <row r="17" spans="2:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B20" s="32">
+      <c r="B20" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="19">
+      <c r="B21" s="18">
         <v>3333</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="20">
+      <c r="B22" s="19">
         <v>333</v>
       </c>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B23" s="21">
+      <c r="B23" s="20">
         <v>43891</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B24" s="22">
+      <c r="B24" s="21">
         <v>0.60625000000000007</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B25" s="23">
+      <c r="B25" s="22">
         <v>0.05</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B26" s="24">
+      <c r="B26" s="23">
         <v>0.5</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="12" t="s">
         <v>24</v>
       </c>
       <c r="K26" t="s">
@@ -4442,34 +4440,34 @@
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B27" s="8">
+      <c r="B27" s="7">
         <v>44180.584027777775</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B28" s="25">
+      <c r="B28" s="24">
         <v>444</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B29" s="27">
+      <c r="B29" s="26">
         <v>44179</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B30" s="26">
+      <c r="B30" s="25">
         <v>44105</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="16" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4477,32 +4475,32 @@
       <c r="B31">
         <v>1.2344999999999999</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="17" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B32" s="28">
+      <c r="B32" s="27">
         <v>1.2344999999999999</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B33" s="31">
+      <c r="B33" s="30">
         <v>12345675544</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B34" s="29">
+      <c r="B34" s="28">
         <v>1.2344999999999999</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B35" s="30">
+      <c r="B35" s="29">
         <v>1.2344999999999999</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="24" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4522,34 +4520,34 @@
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D44" s="46" t="s">
+      <c r="D44" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="F44" s="46" t="s">
+      <c r="F44" s="44" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D45" s="47" t="s">
+      <c r="D45" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="F45" s="47" t="s">
+      <c r="F45" s="45" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D46" s="47" t="s">
+      <c r="D46" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="F46" s="47" t="s">
+      <c r="F46" s="45" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D47" s="47" t="s">
+      <c r="D47" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="F47" s="47" t="s">
+      <c r="F47" s="45" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4620,7 +4618,7 @@
       <c r="C5">
         <v>4</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="8">
         <v>44027</v>
       </c>
       <c r="U5">
@@ -4646,7 +4644,7 @@
       <c r="C6">
         <v>5</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="7">
         <v>44027.997916666667</v>
       </c>
       <c r="R6">
@@ -4876,7 +4874,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="33">
+      <c r="A1" s="32">
         <v>45436</v>
       </c>
     </row>
@@ -4995,51 +4993,51 @@
   <cols>
     <col min="1" max="1" width="7.375" customWidth="1"/>
     <col min="3" max="3" width="14.125" customWidth="1"/>
-    <col min="8" max="8" width="9" style="40"/>
-    <col min="11" max="11" width="9" style="42"/>
-    <col min="12" max="12" width="9" style="45"/>
-    <col min="13" max="13" width="9" style="42"/>
+    <col min="8" max="8" width="9" style="39"/>
+    <col min="11" max="11" width="9" style="12"/>
+    <col min="12" max="12" width="9" style="43"/>
+    <col min="13" max="13" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="47" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="F3" s="49"/>
+      <c r="F3" s="47"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="49"/>
+      <c r="F4" s="47"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="F5" s="49"/>
+      <c r="F5" s="47"/>
     </row>
     <row r="6" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="F6" s="49"/>
+      <c r="F6" s="47"/>
     </row>
     <row r="7" spans="1:13" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="37"/>
-      <c r="F7" s="49"/>
-    </row>
-    <row r="11" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="G11" s="39"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="41"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="44"/>
+      <c r="C7" s="36"/>
+      <c r="F7" s="47"/>
+    </row>
+    <row r="11" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G11" s="38"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="40"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="1">
